--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>75.25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,7 +825,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -820,14 +915,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -836,13 +931,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -915,14 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -931,14 +996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1034,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9</v>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1216,14 +1281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1232,14 +1319,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1248,13 +1357,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>004098</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -733,35 +885,225 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>004098</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -870,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -921,225 +1263,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5179</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2312</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012245</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1154,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1327,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1205,188 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2592</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014746</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>贝莱德港股通远景视野混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014747</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>贝莱德港股通远景视野混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1400,128 +1400,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2592</t>
+          <t>0.2405</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1631</t>
+          <t>0.0839</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -725,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -801,22 +818,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -829,6 +846,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1105,100 +1368,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1402,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1278,21 +1447,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1367,26 +1536,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1395,6 +1564,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02588-中银航空租赁.xlsx
+++ b/数据整理/stocks/港股/02588-中银航空租赁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2405</t>
+          <t>0.2844</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014746</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合A</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.96</t>
+          <t>85.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0839</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014747</t>
+          <t>014746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合C</t>
+          <t>贝莱德港股通远景视野混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.96</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.0967</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>014747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>贝莱德港股通远景视野混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>004098</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -902,36 +995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2592</t>
+          <t>0.2405</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -950,26 +1043,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1631</t>
+          <t>0.0839</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -988,26 +1081,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1016,36 +1109,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1064,22 +1157,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1092,6 +1185,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1368,100 +1707,6 @@
       </c>
       <c r="H7" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1541,21 +1786,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1630,26 +1875,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1658,6 +1903,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
